--- a/data/Dfinity  IOU/Dfinity  IOU20200630.xlsx
+++ b/data/Dfinity  IOU/Dfinity  IOU20200630.xlsx
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
